--- a/biology/Botanique/Osbeckia/Osbeckia.xlsx
+++ b/biology/Botanique/Osbeckia/Osbeckia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osbeckia est un genre de plantes de la famille des Mélastomatacées. Il doit son nom au naturaliste suédois Pehr Osbeck (1723-1805).
 Ce sont des plantes originaires de l'Asie orientale (Chine, Japon, Malaisie, Australasie). Certaines espèces possèderaient des propriétés médicales.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juin 2013) :
 Osbeckia aspera
 Osbeckia aspericaulis
 Osbeckia australiana
@@ -546,14 +560,14 @@
 Osbeckia walkeri
 Osbeckia wynaadensis
 Osbeckia zeylanica
-Selon NCBI  (9 juin 2013)[2] :
+Selon NCBI  (9 juin 2013) :
 Osbeckia aurata
 Osbeckia australiana
 Osbeckia chinensis
 Osbeckia courtallensis
 Osbeckia nepalensis
 Osbeckia stellata
-Selon Tropicos                                           (9 juin 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Osbeckia afzelii (Hook. f.) Cogn.
 Osbeckia andringitrensis H. Perrier
 Osbeckia angustifolia D. Don
